--- a/空方/打印机.xlsx
+++ b/空方/打印机.xlsx
@@ -19,89 +19,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>刘玉</t>
+  </si>
+  <si>
     <t>资产号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>序列号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LP83008206</t>
+  </si>
+  <si>
+    <t>ASD</t>
   </si>
   <si>
     <t>ISD编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISD-P-0006</t>
   </si>
   <si>
     <t>机器型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME1100</t>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3喷墨打印机</t>
+  </si>
+  <si>
+    <t>购买日期</t>
   </si>
   <si>
     <t>存放位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDE 4F</t>
+  </si>
+  <si>
+    <t>1F</t>
   </si>
   <si>
     <t>管理担当</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴静</t>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常使用</t>
   </si>
   <si>
     <t>SISIE1200076</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LP83008206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISD-P-0006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ME1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A3喷墨打印机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDE 4F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴静</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SISCP123123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1F</t>
+    <t>20201024</t>
+  </si>
+  <si>
+    <t>SISCP123120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +135,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -431,101 +419,102 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="10" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="8" width="12.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1">
-        <v>44202</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1">
-        <v>40172</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/空方/打印机.xlsx
+++ b/空方/打印机.xlsx
@@ -64,12 +64,6 @@
     <t>存放位置</t>
   </si>
   <si>
-    <t>PDE 4F</t>
-  </si>
-  <si>
-    <t>1F</t>
-  </si>
-  <si>
     <t>管理担当</t>
   </si>
   <si>
@@ -90,6 +84,14 @@
   </si>
   <si>
     <t>SISCP123120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +421,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -456,10 +458,10 @@
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -467,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -482,16 +484,16 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -499,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -511,7 +513,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>1</v>
